--- a/FFT.xlsx
+++ b/FFT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiKe\Desktop\AudioSpectrumAnalyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martel.aj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -312,12 +312,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -644,36 +657,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -687,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -701,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -715,7 +728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -726,30 +739,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f>POWER(B7/B6,1/(B9-1))</f>
-        <v>1.3966022925346813</v>
+        <v>2.0458330010106924</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -764,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -779,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -791,12 +804,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -814,10 +827,10 @@
       </c>
       <c r="H17" s="19" t="str">
         <f>"//"&amp;B9&amp;" bands, "&amp;B7/1000&amp;"kHz top band"</f>
-        <v>//16 bands, 12kHz top band</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+        <v>//8 bands, 12kHz top band</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <v>0</v>
       </c>
@@ -834,1589 +847,1589 @@
       </c>
       <c r="F18" s="17">
         <f>((D19-D18)/2)+D18</f>
-        <v>2.454120747555514</v>
+        <v>3.118932993034949</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f>"      if (i&lt;="&amp;ROUND(F18,0)&amp;" )           bandValues["&amp;B18&amp;"]  += (int)vReal[i];"</f>
-        <v xml:space="preserve">      if (i&lt;=2 )           bandValues[0]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <f>"      if (i&lt;="&amp;ROUND(F18,0)&amp;" )           bandValues["&amp;B18&amp;"]  += (int)vReal[i];            //" &amp;C18&amp;"Hz"</f>
+        <v xml:space="preserve">      if (i&lt;=3 )           bandValues[0]  += (int)vReal[i];            //80Hz</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>1</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" si="0"/>
-        <v>111.7281834027745</v>
+        <v>163.66664008085539</v>
       </c>
       <c r="D19" s="14">
         <f t="shared" si="1"/>
-        <v>2.8602414951110275</v>
+        <v>4.1898659860698979</v>
       </c>
       <c r="E19" s="14">
         <f>F18</f>
-        <v>2.454120747555514</v>
+        <v>3.118932993034949</v>
       </c>
       <c r="F19" s="5">
         <f>((D20-D19)/2)+D19</f>
-        <v>3.4274306621929562</v>
+        <v>6.3808160450919509</v>
       </c>
       <c r="H19" s="20" t="str">
-        <f>IF(($B$9-1)&lt;B19,"",IF(($B$9-1)=B19,"      if (i&gt;"&amp;ROUND(E19,0)&amp;"             ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E19,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F19,0)&amp;"  ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;2   &amp;&amp; i&lt;=3  ) bandValues[1]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <f>IF(($B$9-1)&lt;B19,"",IF(($B$9-1)=B19,"      if (i&gt;"&amp;ROUND(E19,0)&amp;"             ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];            //" &amp;ROUND(C19,0)&amp;"Hz","      if (i&gt;"&amp;ROUND(E19,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F19,0)&amp;"  ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];            //" &amp;ROUND(C19,0)&amp;"Hz"))</f>
+        <v xml:space="preserve">      if (i&gt;3   &amp;&amp; i&lt;=6  ) bandValues[1]  += (int)vReal[i];            //164Hz</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>2</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" si="0"/>
-        <v>156.03983708105019</v>
+        <v>334.83461344195325</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" si="1"/>
-        <v>3.9946198292748849</v>
+        <v>8.571766104114003</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" ref="E20:E81" si="2">F19</f>
-        <v>3.4274306621929562</v>
+        <v>6.3808160450919509</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ref="F20:F81" si="3">((D21-D20)/2)+D20</f>
-        <v>4.7867575203223431</v>
+        <v>13.054084038427643</v>
       </c>
       <c r="H20" s="20" t="str">
-        <f t="shared" ref="H20:H81" si="4">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;3   &amp;&amp; i&lt;=5  ) bandValues[2]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H20:H81" si="4">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];            //" &amp;ROUND(C20,0)&amp;"Hz","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];            //" &amp;ROUND(C20,0)&amp;"Hz"))</f>
+        <v xml:space="preserve">      if (i&gt;6   &amp;&amp; i&lt;=13  ) bandValues[2]  += (int)vReal[i];            //335Hz</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>3</v>
       </c>
       <c r="C21" s="14">
         <f t="shared" si="0"/>
-        <v>217.92559419413288</v>
+        <v>685.01570206020642</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" si="1"/>
-        <v>5.5788952113698018</v>
+        <v>17.536401972741285</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="2"/>
-        <v>4.7867575203223431</v>
+        <v>13.054084038427643</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
-        <v>6.6851965266898112</v>
+        <v>26.706475923782207</v>
       </c>
       <c r="H21" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;5   &amp;&amp; i&lt;=7  ) bandValues[3]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">      if (i&gt;13   &amp;&amp; i&lt;=27  ) bandValues[3]  += (int)vReal[i];            //685Hz</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>4</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" si="0"/>
-        <v>304.35538445350858</v>
+        <v>1401.4277294852784</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="1"/>
-        <v>7.7914978420098198</v>
+        <v>35.876549874823127</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="2"/>
-        <v>6.6851965266898112</v>
+        <v>26.706475923782207</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
-        <v>9.3365607952198779</v>
+        <v>54.636989785571146</v>
       </c>
       <c r="H22" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;7   &amp;&amp; i&lt;=9  ) bandValues[4]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">      if (i&gt;27   &amp;&amp; i&lt;=55  ) bandValues[4]  += (int)vReal[i];            //1401Hz</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>5</v>
       </c>
       <c r="C23" s="14">
         <f t="shared" si="0"/>
-        <v>425.06342767304437</v>
+        <v>2867.0870975124676</v>
       </c>
       <c r="D23" s="14">
         <f t="shared" si="1"/>
-        <v>10.881623748429936</v>
+        <v>73.397429696319165</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" si="2"/>
-        <v>9.3365607952198779</v>
+        <v>54.636989785571146</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="3"/>
-        <v>13.039462210993507</v>
+        <v>111.77815677920557</v>
       </c>
       <c r="H23" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;9   &amp;&amp; i&lt;=13  ) bandValues[5]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">      if (i&gt;55   &amp;&amp; i&lt;=112  ) bandValues[5]  += (int)vReal[i];            //2867Hz</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>6</v>
       </c>
       <c r="C24" s="14">
         <f t="shared" si="0"/>
-        <v>593.64455756082339</v>
+        <v>5865.5814008629677</v>
       </c>
       <c r="D24" s="14">
         <f t="shared" si="1"/>
-        <v>15.197300673557079</v>
+        <v>150.15888386209198</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" si="2"/>
-        <v>13.039462210993507</v>
+        <v>111.77815677920557</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="3"/>
-        <v>18.210942817292878</v>
+        <v>228.67944193104586</v>
       </c>
       <c r="H24" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;13   &amp;&amp; i&lt;=18  ) bandValues[6]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">      if (i&gt;112   &amp;&amp; i&lt;=229  ) bandValues[6]  += (int)vReal[i];            //5866Hz</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>7</v>
       </c>
       <c r="C25" s="14">
         <f t="shared" si="0"/>
-        <v>829.08535004018268</v>
+        <v>11999.999999999989</v>
       </c>
       <c r="D25" s="14">
         <f t="shared" si="1"/>
-        <v>21.224584961028675</v>
+        <v>307.1999999999997</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" si="2"/>
-        <v>18.210942817292878</v>
+        <v>228.67944193104586</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="3"/>
-        <v>25.433444487849222</v>
+        <v>467.83994895524188</v>
       </c>
       <c r="H25" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;18   &amp;&amp; i&lt;=25  ) bandValues[7]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">      if (i&gt;229             ) bandValues[7]  += (int)vReal[i];            //12000Hz</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" si="0"/>
-        <v>1157.9025005730377</v>
+        <v>24549.996012128282</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" si="1"/>
-        <v>29.642304014669765</v>
+        <v>628.47989791048406</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" si="2"/>
-        <v>25.433444487849222</v>
+        <v>467.83994895524188</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
-        <v>35.520406878783767</v>
+        <v>957.12240676379156</v>
       </c>
       <c r="H26" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;25   &amp;&amp; i&lt;=36  ) bandValues[8]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>9</v>
       </c>
       <c r="C27" s="14">
         <f t="shared" si="0"/>
-        <v>1617.1292868319442</v>
+        <v>50225.192016292931</v>
       </c>
       <c r="D27" s="14">
         <f t="shared" si="1"/>
-        <v>41.398509742897772</v>
+        <v>1285.7649156170989</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" si="2"/>
-        <v>35.520406878783767</v>
+        <v>957.12240676379156</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="3"/>
-        <v>49.607881678674076</v>
+        <v>1958.1126057641441</v>
       </c>
       <c r="H27" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;36   &amp;&amp; i&lt;=50  ) bandValues[9]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>10</v>
       </c>
       <c r="C28" s="14">
         <f t="shared" si="0"/>
-        <v>2258.4864693144677</v>
+        <v>102752.35530903084</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" si="1"/>
-        <v>57.817253614450372</v>
+        <v>2630.4602959111894</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" si="2"/>
-        <v>49.607881678674076</v>
+        <v>1958.1126057641441</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="3"/>
-        <v>69.282481280225426</v>
+        <v>4005.9713885673264</v>
       </c>
       <c r="H28" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;50   &amp;&amp; i&lt;=69  ) bandValues[10]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>11</v>
       </c>
       <c r="C29" s="14">
         <f t="shared" si="0"/>
-        <v>3154.2073807031438</v>
+        <v>210214.15942279153</v>
       </c>
       <c r="D29" s="14">
         <f t="shared" si="1"/>
-        <v>80.747708946000486</v>
+        <v>5381.4824812234629</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" si="2"/>
-        <v>69.282481280225426</v>
+        <v>4005.9713885673264</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="3"/>
-        <v>96.760072188453975</v>
+        <v>8195.5484678356643</v>
       </c>
       <c r="H29" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;69   &amp;&amp; i&lt;=97  ) bandValues[11]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>12</v>
       </c>
       <c r="C30" s="14">
         <f t="shared" si="0"/>
-        <v>4405.1732590198226</v>
+        <v>430063.06462686969</v>
       </c>
       <c r="D30" s="14">
         <f t="shared" si="1"/>
-        <v>112.77243543090746</v>
+        <v>11009.614454447865</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="2"/>
-        <v>96.760072188453975</v>
+        <v>8195.5484678356643</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="3"/>
-        <v>135.13533864421606</v>
+        <v>16766.723516880818</v>
       </c>
       <c r="H30" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;97   &amp;&amp; i&lt;=135  ) bandValues[12]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>13</v>
       </c>
       <c r="C31" s="14">
         <f t="shared" si="0"/>
-        <v>6152.2750725595579</v>
+        <v>879837.21012944414</v>
       </c>
       <c r="D31" s="14">
         <f t="shared" si="1"/>
-        <v>157.49824185752468</v>
+        <v>22523.83257931377</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" si="2"/>
-        <v>135.13533864421606</v>
+        <v>16766.723516880818</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="3"/>
-        <v>188.73032375296265</v>
+        <v>34301.91628965683</v>
       </c>
       <c r="H31" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;135   &amp;&amp; i&lt;=189  ) bandValues[13]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>14</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" si="0"/>
-        <v>8592.2814706406498</v>
+        <v>1799999.9999999958</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="1"/>
-        <v>219.96240564840065</v>
+        <v>46079.999999999891</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" si="2"/>
-        <v>188.73032375296265</v>
+        <v>34301.91628965683</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="3"/>
-        <v>263.58120282420032</v>
+        <v>70175.992343286198</v>
       </c>
       <c r="H32" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;189   &amp;&amp; i&lt;=264  ) bandValues[14]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>15</v>
       </c>
       <c r="C33" s="14">
         <f t="shared" si="0"/>
-        <v>11999.999999999996</v>
+        <v>3682499.4018192384</v>
       </c>
       <c r="D33" s="14">
         <f t="shared" si="1"/>
-        <v>307.19999999999993</v>
+        <v>94271.984686572498</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="2"/>
-        <v>263.58120282420032</v>
+        <v>70175.992343286198</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="3"/>
-        <v>368.11811213332692</v>
+        <v>143568.36101456857</v>
       </c>
       <c r="H33" s="20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;264             ) bandValues[15]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>16</v>
       </c>
       <c r="C34" s="14">
         <f t="shared" si="0"/>
-        <v>16759.227510416171</v>
+        <v>7533778.8024439309</v>
       </c>
       <c r="D34" s="14">
         <f t="shared" si="1"/>
-        <v>429.03622426665396</v>
+        <v>192864.73734256462</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" si="2"/>
-        <v>368.11811213332692</v>
+        <v>143568.36101456857</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="3"/>
-        <v>514.11459932894331</v>
+        <v>293716.89086462127</v>
       </c>
       <c r="H34" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>17</v>
       </c>
       <c r="C35" s="14">
         <f t="shared" si="0"/>
-        <v>23405.975562157524</v>
+        <v>15412853.296354609</v>
       </c>
       <c r="D35" s="14">
         <f t="shared" si="1"/>
-        <v>599.19297439123261</v>
+        <v>394569.04438667797</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" si="2"/>
-        <v>514.11459932894331</v>
+        <v>293716.89086462127</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="3"/>
-        <v>718.01362804835128</v>
+        <v>600895.7082850982</v>
       </c>
       <c r="H35" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>18</v>
       </c>
       <c r="C36" s="14">
         <f t="shared" si="0"/>
-        <v>32688.839129119919</v>
+        <v>31532123.913418692</v>
       </c>
       <c r="D36" s="14">
         <f t="shared" si="1"/>
-        <v>836.83428170546995</v>
+        <v>807222.37218351848</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" si="2"/>
-        <v>718.01362804835128</v>
+        <v>600895.7082850982</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="3"/>
-        <v>1002.7794790034712</v>
+        <v>1229332.2701753483</v>
       </c>
       <c r="H36" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>19</v>
       </c>
       <c r="C37" s="14">
         <f t="shared" si="0"/>
-        <v>45653.307668026275</v>
+        <v>64509459.694030389</v>
       </c>
       <c r="D37" s="14">
         <f t="shared" si="1"/>
-        <v>1168.7246763014725</v>
+        <v>1651442.1681671781</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" si="2"/>
-        <v>1002.7794790034712</v>
+        <v>1229332.2701753483</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="3"/>
-        <v>1400.4841192829813</v>
+        <v>2515008.5275321202</v>
       </c>
       <c r="H37" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>20</v>
       </c>
       <c r="C38" s="14">
         <f t="shared" si="0"/>
-        <v>63759.514150956631</v>
+        <v>131975581.51941648</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="1"/>
-        <v>1632.2435622644898</v>
+        <v>3378574.886897062</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="2"/>
-        <v>1400.4841192829813</v>
+        <v>2515008.5275321202</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="3"/>
-        <v>1955.9193316490255</v>
+        <v>5145287.4434485193</v>
       </c>
       <c r="H38" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>21</v>
       </c>
       <c r="C39" s="14">
         <f t="shared" si="0"/>
-        <v>89046.683634123488</v>
+        <v>269999999.99999905</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" si="1"/>
-        <v>2279.5951010335611</v>
+        <v>6911999.9999999758</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="2"/>
-        <v>1955.9193316490255</v>
+        <v>5145287.4434485193</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="3"/>
-        <v>2731.6414225939307</v>
+        <v>10526398.851492917</v>
       </c>
       <c r="H39" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>22</v>
       </c>
       <c r="C40" s="14">
         <f t="shared" si="0"/>
-        <v>124362.80250602735</v>
+        <v>552374910.27288508</v>
       </c>
       <c r="D40" s="14">
         <f t="shared" si="1"/>
-        <v>3183.6877441543002</v>
+        <v>14140797.702985859</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" si="2"/>
-        <v>2731.6414225939307</v>
+        <v>10526398.851492917</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="3"/>
-        <v>3815.0166731773816</v>
+        <v>21535254.152185265</v>
       </c>
       <c r="H40" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>23</v>
       </c>
       <c r="C41" s="14">
         <f t="shared" si="0"/>
-        <v>173685.3750859556</v>
+        <v>1130066820.3665886</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" si="1"/>
-        <v>4446.345602200463</v>
+        <v>28929710.60138467</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" si="2"/>
-        <v>3815.0166731773816</v>
+        <v>21535254.152185265</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="3"/>
-        <v>5328.0610318175641</v>
+        <v>44057533.629693151</v>
       </c>
       <c r="H41" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>24</v>
       </c>
       <c r="C42" s="14">
         <f t="shared" si="0"/>
-        <v>242569.39302479161</v>
+        <v>2311927994.4531889</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" si="1"/>
-        <v>6209.7764614346652</v>
+        <v>59185356.658001639</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" si="2"/>
-        <v>5328.0610318175641</v>
+        <v>44057533.629693151</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="3"/>
-        <v>7441.1822518011086</v>
+        <v>90134356.242764637</v>
       </c>
       <c r="H42" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>25</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" si="0"/>
-        <v>338772.97039716999</v>
+        <v>4729818587.0127983</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" si="1"/>
-        <v>8672.588042167552</v>
+        <v>121083355.82752764</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" si="2"/>
-        <v>7441.1822518011086</v>
+        <v>90134356.242764637</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="3"/>
-        <v>10392.37219203381</v>
+        <v>184399840.52630201</v>
       </c>
       <c r="H43" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>26</v>
       </c>
       <c r="C44" s="14">
         <f t="shared" si="0"/>
-        <v>473131.10710547137</v>
+        <v>9676418954.1045456</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" si="1"/>
-        <v>12112.156341900067</v>
+        <v>247716325.22507638</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" si="2"/>
-        <v>10392.37219203381</v>
+        <v>184399840.52630201</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="3"/>
-        <v>14514.01082826809</v>
+        <v>377251279.12981755</v>
       </c>
       <c r="H44" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>27</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" si="0"/>
-        <v>660775.98885297321</v>
+        <v>19796337227.912449</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="1"/>
-        <v>16915.865314636114</v>
+        <v>506786233.03455871</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="2"/>
-        <v>14514.01082826809</v>
+        <v>377251279.12981755</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="3"/>
-        <v>20270.3007966324</v>
+        <v>771793116.517277</v>
       </c>
       <c r="H45" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>28</v>
       </c>
       <c r="C46" s="14">
         <f t="shared" si="0"/>
-        <v>922841.26088393328</v>
+        <v>40499999999.999817</v>
       </c>
       <c r="D46" s="14">
         <f t="shared" si="1"/>
-        <v>23624.73627862869</v>
+        <v>1036799999.9999954</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" si="2"/>
-        <v>20270.3007966324</v>
+        <v>771793116.517277</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="3"/>
-        <v>28309.54856294439</v>
+        <v>1578959827.7239356</v>
       </c>
       <c r="H46" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>29</v>
       </c>
       <c r="C47" s="14">
         <f t="shared" si="0"/>
-        <v>1288842.2205960972</v>
+        <v>82856236540.932663</v>
       </c>
       <c r="D47" s="14">
         <f t="shared" si="1"/>
-        <v>32994.36084726009</v>
+        <v>2121119655.4478762</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" si="2"/>
-        <v>28309.54856294439</v>
+        <v>1578959827.7239356</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="3"/>
-        <v>39537.18042363003</v>
+        <v>3230288122.8277855</v>
       </c>
       <c r="H47" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>30</v>
       </c>
       <c r="C48" s="14">
         <f t="shared" si="0"/>
-        <v>1799999.9999999988</v>
+        <v>169510023054.98807</v>
       </c>
       <c r="D48" s="14">
         <f t="shared" si="1"/>
-        <v>46079.999999999971</v>
+        <v>4339456590.207695</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" si="2"/>
-        <v>39537.18042363003</v>
+        <v>3230288122.8277855</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="3"/>
-        <v>55217.716819999019</v>
+        <v>6608630044.4539652</v>
       </c>
       <c r="H48" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>31</v>
       </c>
       <c r="C49" s="14">
         <f t="shared" si="0"/>
-        <v>2513884.1265624245</v>
+        <v>346789199167.97797</v>
       </c>
       <c r="D49" s="14">
         <f t="shared" si="1"/>
-        <v>64355.433639998068</v>
+        <v>8877803498.7002354</v>
       </c>
       <c r="E49" s="14">
         <f t="shared" si="2"/>
-        <v>55217.716819999019</v>
+        <v>6608630044.4539652</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="3"/>
-        <v>77117.189899341465</v>
+        <v>13520153436.41468</v>
       </c>
       <c r="H49" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>32</v>
       </c>
       <c r="C50" s="14">
         <f t="shared" si="0"/>
-        <v>3510896.3343236269</v>
+        <v>709472788051.91895</v>
       </c>
       <c r="D50" s="14">
         <f t="shared" si="1"/>
-        <v>89878.946158684848</v>
+        <v>18162503374.129124</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="2"/>
-        <v>77117.189899341465</v>
+        <v>13520153436.41468</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="3"/>
-        <v>107702.04420725265</v>
+        <v>27659976078.945267</v>
       </c>
       <c r="H50" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>33</v>
       </c>
       <c r="C51" s="14">
         <f t="shared" si="0"/>
-        <v>4903325.869367986</v>
+        <v>1451462843115.6802</v>
       </c>
       <c r="D51" s="14">
         <f t="shared" si="1"/>
-        <v>125525.14225582044</v>
+        <v>37157448783.761414</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="2"/>
-        <v>107702.04420725265</v>
+        <v>27659976078.945267</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="3"/>
-        <v>150416.92185052062</v>
+        <v>56587691869.472572</v>
       </c>
       <c r="H51" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>34</v>
       </c>
       <c r="C52" s="14">
         <f t="shared" si="0"/>
-        <v>6847996.1502039386</v>
+        <v>2969450584186.8643</v>
       </c>
       <c r="D52" s="14">
         <f t="shared" si="1"/>
-        <v>175308.70144522082</v>
+        <v>76017934955.183731</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" si="2"/>
-        <v>150416.92185052062</v>
+        <v>56587691869.472572</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="3"/>
-        <v>210072.6178924471</v>
+        <v>115768967477.59143</v>
       </c>
       <c r="H52" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>35</v>
       </c>
       <c r="C53" s="14">
         <f t="shared" si="0"/>
-        <v>9563927.1226434931</v>
+        <v>6074999999999.9658</v>
       </c>
       <c r="D53" s="14">
         <f t="shared" si="1"/>
-        <v>244836.53433967341</v>
+        <v>155519999999.99911</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" si="2"/>
-        <v>210072.6178924471</v>
+        <v>115768967477.59143</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="3"/>
-        <v>293387.89974735375</v>
+        <v>236843974158.59009</v>
       </c>
       <c r="H53" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>36</v>
       </c>
       <c r="C54" s="14">
         <f t="shared" si="0"/>
-        <v>13357002.545118518</v>
+        <v>12428435481139.885</v>
       </c>
       <c r="D54" s="14">
         <f t="shared" si="1"/>
-        <v>341939.26515503408</v>
+        <v>318167948317.18103</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" si="2"/>
-        <v>293387.89974735375</v>
+        <v>236843974158.59009</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="3"/>
-        <v>409746.21338908951</v>
+        <v>484543218424.16724</v>
       </c>
       <c r="H54" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>37</v>
       </c>
       <c r="C55" s="14">
         <f t="shared" si="0"/>
-        <v>18654420.375904098</v>
+        <v>25426503458248.18</v>
       </c>
       <c r="D55" s="14">
         <f t="shared" si="1"/>
-        <v>477553.16162314493</v>
+        <v>650918488531.15344</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="2"/>
-        <v>409746.21338908951</v>
+        <v>484543218424.16724</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="3"/>
-        <v>572252.50097660709</v>
+        <v>991294506668.09351</v>
       </c>
       <c r="H55" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>38</v>
       </c>
       <c r="C56" s="14">
         <f t="shared" si="0"/>
-        <v>26052806.262893327</v>
+        <v>52018379875196.633</v>
       </c>
       <c r="D56" s="14">
         <f t="shared" si="1"/>
-        <v>666951.84033006919</v>
+        <v>1331670524805.0337</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="2"/>
-        <v>572252.50097660709</v>
+        <v>991294506668.09351</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="3"/>
-        <v>799209.15477263439</v>
+        <v>2028023015462.2</v>
       </c>
       <c r="H56" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>39</v>
       </c>
       <c r="C57" s="14">
         <f t="shared" si="0"/>
-        <v>36385408.953718729</v>
+        <v>106420918207787.73</v>
       </c>
       <c r="D57" s="14">
         <f t="shared" si="1"/>
-        <v>931466.46921519947</v>
+        <v>2724375506119.3662</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="2"/>
-        <v>799209.15477263439</v>
+        <v>2028023015462.2</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="3"/>
-        <v>1116177.3377701661</v>
+        <v>4148996411841.7861</v>
       </c>
       <c r="H57" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>40</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" si="0"/>
-        <v>50815945.559575491</v>
+        <v>217719426467351.81</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="1"/>
-        <v>1300888.2063251326</v>
+        <v>5573617317564.2061</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="2"/>
-        <v>1116177.3377701661</v>
+        <v>4148996411841.7861</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="3"/>
-        <v>1558855.8288050708</v>
+        <v>8488153780420.875</v>
       </c>
       <c r="H58" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>41</v>
       </c>
       <c r="C59" s="14">
         <f t="shared" si="0"/>
-        <v>70969666.065820679</v>
+        <v>445417587628029.06</v>
       </c>
       <c r="D59" s="14">
         <f t="shared" si="1"/>
-        <v>1816823.4512850093</v>
+        <v>11402690243277.545</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="2"/>
-        <v>1558855.8288050708</v>
+        <v>8488153780420.875</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="3"/>
-        <v>2177101.6242402126</v>
+        <v>17365345121638.695</v>
       </c>
       <c r="H59" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>42</v>
       </c>
       <c r="C60" s="14">
         <f t="shared" si="0"/>
-        <v>99116398.327945933</v>
+        <v>911249999999993.87</v>
       </c>
       <c r="D60" s="14">
         <f t="shared" si="1"/>
-        <v>2537379.7971954159</v>
+        <v>23327999999999.844</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="2"/>
-        <v>2177101.6242402126</v>
+        <v>17365345121638.695</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="3"/>
-        <v>3040545.1194948596</v>
+        <v>35526596123788.484</v>
       </c>
       <c r="H60" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>43</v>
       </c>
       <c r="C61" s="14">
         <f t="shared" si="0"/>
-        <v>138426189.13258997</v>
+        <v>1864265322170981</v>
       </c>
       <c r="D61" s="14">
         <f t="shared" si="1"/>
-        <v>3543710.4417943032</v>
+        <v>47725192247577.117</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" si="2"/>
-        <v>3040545.1194948596</v>
+        <v>35526596123788.484</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="3"/>
-        <v>4246432.2844416574</v>
+        <v>72681482763625.016</v>
       </c>
       <c r="H61" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>44</v>
       </c>
       <c r="C62" s="14">
         <f t="shared" si="0"/>
-        <v>193326333.08941451</v>
+        <v>3813975518737223</v>
       </c>
       <c r="D62" s="14">
         <f t="shared" si="1"/>
-        <v>4949154.1270890115</v>
+        <v>97637773279672.906</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="2"/>
-        <v>4246432.2844416574</v>
+        <v>72681482763625.016</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="3"/>
-        <v>5930577.0635445025</v>
+        <v>148694176000213.87</v>
       </c>
       <c r="H62" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>45</v>
       </c>
       <c r="C63" s="14">
         <f t="shared" si="0"/>
-        <v>269999999.9999997</v>
+        <v>7802756981279485</v>
       </c>
       <c r="D63" s="14">
         <f t="shared" si="1"/>
-        <v>6911999.9999999925</v>
+        <v>199750578720754.81</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="2"/>
-        <v>5930577.0635445025</v>
+        <v>148694176000213.87</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="3"/>
-        <v>8282657.5229998501</v>
+        <v>304203452319329.62</v>
       </c>
       <c r="H63" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>46</v>
       </c>
       <c r="C64" s="14">
         <f t="shared" si="0"/>
-        <v>377082618.98436356</v>
+        <v>1.596313773116814E+16</v>
       </c>
       <c r="D64" s="14">
         <f t="shared" si="1"/>
-        <v>9653315.0459997077</v>
+        <v>408656325917904.37</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" si="2"/>
-        <v>8282657.5229998501</v>
+        <v>304203452319329.62</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="3"/>
-        <v>11567578.484901216</v>
+        <v>622349461776267.25</v>
       </c>
       <c r="H64" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>47</v>
       </c>
       <c r="C65" s="14">
         <f t="shared" si="0"/>
-        <v>526634450.14854383</v>
+        <v>3.2657913970102736E+16</v>
       </c>
       <c r="D65" s="14">
         <f t="shared" si="1"/>
-        <v>13481841.923802722</v>
+        <v>836042597634630</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" si="2"/>
-        <v>11567578.484901216</v>
+        <v>622349461776267.25</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="3"/>
-        <v>16155306.631087892</v>
+        <v>1273223067063130</v>
       </c>
       <c r="H65" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>48</v>
       </c>
       <c r="C66" s="14">
         <f t="shared" si="0"/>
-        <v>735498880.40519774</v>
+        <v>6.6812638144204288E+16</v>
       </c>
       <c r="D66" s="14">
         <f t="shared" si="1"/>
-        <v>18828771.338373061</v>
+        <v>1710403536491629.7</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" si="2"/>
-        <v>16155306.631087892</v>
+        <v>1273223067063130</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="3"/>
-        <v>22562538.277578089</v>
+        <v>2604801768245801</v>
       </c>
       <c r="H66" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <v>49</v>
       </c>
       <c r="C67" s="14">
         <f t="shared" si="0"/>
-        <v>1027199422.5305905</v>
+        <v>1.3668749999999891E+17</v>
       </c>
       <c r="D67" s="14">
         <f t="shared" si="1"/>
-        <v>26296305.216783118</v>
+        <v>3499199999999972</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" si="2"/>
-        <v>22562538.277578089</v>
+        <v>2604801768245801</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="3"/>
-        <v>31510892.68386706</v>
+        <v>5328989418568265</v>
       </c>
       <c r="H67" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>50</v>
       </c>
       <c r="C68" s="14">
         <f t="shared" si="0"/>
-        <v>1434589068.3965232</v>
+        <v>2.7963979832564678E+17</v>
       </c>
       <c r="D68" s="14">
         <f t="shared" si="1"/>
-        <v>36725480.150950998</v>
+        <v>7158778837136558</v>
       </c>
       <c r="E68" s="14">
         <f t="shared" si="2"/>
-        <v>31510892.68386706</v>
+        <v>5328989418568265</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="3"/>
-        <v>44008184.962103046</v>
+        <v>1.090222241454374E+16</v>
       </c>
       <c r="H68" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>51</v>
       </c>
       <c r="C69" s="14">
         <f t="shared" si="0"/>
-        <v>2003550381.7677772</v>
+        <v>5.7209632781058291E+17</v>
       </c>
       <c r="D69" s="14">
         <f t="shared" si="1"/>
-        <v>51290889.773255095</v>
+        <v>1.4645665991950922E+16</v>
       </c>
       <c r="E69" s="14">
         <f t="shared" si="2"/>
-        <v>44008184.962103046</v>
+        <v>1.090222241454374E+16</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="3"/>
-        <v>61461932.008363396</v>
+        <v>2.2304126400032056E+16</v>
       </c>
       <c r="H69" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>52</v>
       </c>
       <c r="C70" s="14">
         <f t="shared" si="0"/>
-        <v>2798163056.385613</v>
+        <v>1.1704135471919214E+18</v>
       </c>
       <c r="D70" s="14">
         <f t="shared" si="1"/>
-        <v>71632974.243471697</v>
+        <v>2.9962586808113188E+16</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" si="2"/>
-        <v>61461932.008363396</v>
+        <v>2.2304126400032056E+16</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="3"/>
-        <v>85837875.146491021</v>
+        <v>4.5630517847899392E+16</v>
       </c>
       <c r="H70" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>53</v>
       </c>
       <c r="C71" s="14">
         <f t="shared" si="0"/>
-        <v>3907920939.4339986</v>
+        <v>2.3944706596752184E+18</v>
       </c>
       <c r="D71" s="14">
         <f t="shared" si="1"/>
-        <v>100042776.04951036</v>
+        <v>6.1298448887685592E+16</v>
       </c>
       <c r="E71" s="14">
         <f t="shared" si="2"/>
-        <v>85837875.146491021</v>
+        <v>4.5630517847899392E+16</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="3"/>
-        <v>119881373.21589512</v>
+        <v>9.3352419266439968E+16</v>
       </c>
       <c r="H71" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>54</v>
       </c>
       <c r="C72" s="14">
         <f t="shared" si="0"/>
-        <v>5457811343.0578079</v>
+        <v>4.8986870955154043E+18</v>
       </c>
       <c r="D72" s="14">
         <f t="shared" si="1"/>
-        <v>139719970.38227987</v>
+        <v>1.2540638964519435E+17</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" si="2"/>
-        <v>119881373.21589512</v>
+        <v>9.3352419266439968E+16</v>
       </c>
       <c r="F72" s="5">
         <f t="shared" si="3"/>
-        <v>167426600.66552484</v>
+        <v>1.9098346005946928E+17</v>
       </c>
       <c r="H72" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>55</v>
       </c>
       <c r="C73" s="14">
         <f t="shared" si="0"/>
-        <v>7622391833.9363213</v>
+        <v>1.0021895721630634E+19</v>
       </c>
       <c r="D73" s="14">
         <f t="shared" si="1"/>
-        <v>195133230.94876984</v>
+        <v>2.5656053047374422E+17</v>
       </c>
       <c r="E73" s="14">
         <f t="shared" si="2"/>
-        <v>167426600.66552484</v>
+        <v>1.9098346005946928E+17</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="3"/>
-        <v>233828374.32076061</v>
+        <v>3.9072026523686976E+17</v>
       </c>
       <c r="H73" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>56</v>
       </c>
       <c r="C74" s="14">
         <f t="shared" si="0"/>
-        <v>10645449909.8731</v>
+        <v>2.0503124999999816E+19</v>
       </c>
       <c r="D74" s="14">
         <f t="shared" si="1"/>
-        <v>272523517.69275135</v>
+        <v>5.2487999999999526E+17</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" si="2"/>
-        <v>233828374.32076061</v>
+        <v>3.9072026523686976E+17</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="3"/>
-        <v>326565243.63603181</v>
+        <v>7.9934841278523878E+17</v>
       </c>
       <c r="H74" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>57</v>
       </c>
       <c r="C75" s="14">
         <f t="shared" si="0"/>
-        <v>14867459749.191885</v>
+        <v>4.1945969748846969E+19</v>
       </c>
       <c r="D75" s="14">
         <f t="shared" si="1"/>
-        <v>380606969.57931226</v>
+        <v>1.0738168255704824E+18</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" si="2"/>
-        <v>326565243.63603181</v>
+        <v>7.9934841278523878E+17</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="3"/>
-        <v>456081767.92422873</v>
+        <v>1.635333362181559E+18</v>
       </c>
       <c r="H75" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>58</v>
       </c>
       <c r="C76" s="14">
         <f t="shared" si="0"/>
-        <v>20763928369.888485</v>
+        <v>8.5814449171587334E+19</v>
       </c>
       <c r="D76" s="14">
         <f t="shared" si="1"/>
-        <v>531556566.26914519</v>
+        <v>2.1968498987926356E+18</v>
       </c>
       <c r="E76" s="14">
         <f t="shared" si="2"/>
-        <v>456081767.92422873</v>
+        <v>1.635333362181559E+18</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" si="3"/>
-        <v>636964842.66624832</v>
+        <v>3.3456189600048046E+18</v>
       </c>
       <c r="H76" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>59</v>
       </c>
       <c r="C77" s="14">
         <f t="shared" si="0"/>
-        <v>28998949963.41217</v>
+        <v>1.7556203207878803E+20</v>
       </c>
       <c r="D77" s="14">
         <f t="shared" si="1"/>
-        <v>742373119.06335151</v>
+        <v>4.4943880212169738E+18</v>
       </c>
       <c r="E77" s="14">
         <f t="shared" si="2"/>
-        <v>636964842.66624832</v>
+        <v>3.3456189600048046E+18</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="3"/>
-        <v>889586559.53167498</v>
+        <v>6.8445776771849011E+18</v>
       </c>
       <c r="H77" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>60</v>
       </c>
       <c r="C78" s="14">
         <f t="shared" si="0"/>
-        <v>40499999999.999939</v>
+        <v>3.5917059895128234E+20</v>
       </c>
       <c r="D78" s="14">
         <f t="shared" si="1"/>
-        <v>1036799999.9999985</v>
+        <v>9.1947673331528284E+18</v>
       </c>
       <c r="E78" s="14">
         <f t="shared" si="2"/>
-        <v>889586559.53167498</v>
+        <v>6.8445776771849011E+18</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="3"/>
-        <v>1242398628.4499769</v>
+        <v>1.4002862889965978E+19</v>
       </c>
       <c r="H78" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>61</v>
       </c>
       <c r="C79" s="14">
         <f t="shared" si="0"/>
-        <v>56562392847.65451</v>
+        <v>7.3480306432730975E+20</v>
       </c>
       <c r="D79" s="14">
         <f t="shared" si="1"/>
-        <v>1447997256.8999555</v>
+        <v>1.881095844677913E+19</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" si="2"/>
-        <v>1242398628.4499769</v>
+        <v>1.4002862889965978E+19</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="3"/>
-        <v>1735136772.7351818</v>
+        <v>2.8647519008920355E+19</v>
       </c>
       <c r="H79" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>62</v>
       </c>
       <c r="C80" s="14">
         <f t="shared" si="0"/>
-        <v>78995167522.281555</v>
+        <v>1.503284358244593E+21</v>
       </c>
       <c r="D80" s="14">
         <f t="shared" si="1"/>
-        <v>2022276288.5704079</v>
+        <v>3.848407957106158E+19</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" si="2"/>
-        <v>1735136772.7351818</v>
+        <v>2.8647519008920355E+19</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="3"/>
-        <v>2423295994.6631827</v>
+        <v>5.8608039785530393E+19</v>
       </c>
       <c r="H80" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>63</v>
       </c>
       <c r="C81" s="9">
         <f t="shared" si="0"/>
-        <v>110324832060.7796</v>
+        <v>3.0754687499999694E+21</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="1"/>
-        <v>2824315700.7559576</v>
+        <v>7.8731999999999214E+19</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="2"/>
-        <v>2423295994.6631827</v>
+        <v>5.8608039785530393E+19</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="3"/>
-        <v>1412157850.3779788</v>
-      </c>
-      <c r="H81" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+        <v>3.9365999999999607E+19</v>
+      </c>
+      <c r="H81" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
@@ -2425,12 +2438,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:F18 H17 H18">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:F81 H19:H81">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B19&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
